--- a/comparar.xlsx
+++ b/comparar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anahil Quijada\programacionAna\excel-compare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac-cjc/projects/practices-ana/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C51A7B4-5DC9-4BD2-84B1-4BE9BB59A6F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDCE904-15F2-BD49-9ACF-D2220508EB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B6C8AA03-3C61-4B1F-91AA-020DBAE02928}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{B6C8AA03-3C61-4B1F-91AA-020DBAE02928}"/>
   </bookViews>
   <sheets>
     <sheet name="PAGO DIARIO" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,14 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -420,9 +428,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;\-#,##0"/>
-    <numFmt numFmtId="165" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;\-#,##0"/>
+    <numFmt numFmtId="166" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -736,8 +744,8 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -753,7 +761,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -771,16 +779,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -798,7 +806,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -816,13 +824,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -846,20 +854,104 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -867,94 +959,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Millares 2" xfId="2" xr:uid="{9BF4EC25-D031-4CDF-BBF4-51C3DDCE2FE7}"/>
-    <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
@@ -1098,7 +1106,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1397,39 +1405,39 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="1" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="11" width="10.7109375" customWidth="1"/>
+    <col min="7" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="10" max="11" width="10.6640625" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-    </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+    </row>
+    <row r="2" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1470,16 +1478,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="72">
+      <c r="B3" s="69">
         <v>9550</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="73">
+      <c r="G3" s="70">
         <v>230000</v>
       </c>
       <c r="H3" s="4"/>
@@ -1487,101 +1495,101 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="74" t="s">
+      <c r="M3" s="71" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="126" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48">
+    <row r="4" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46">
         <v>9611</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="49">
+      <c r="C4" s="45"/>
+      <c r="D4" s="47">
         <v>44981</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51">
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="49">
         <v>636000</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="53" t="s">
+      <c r="I4" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="48"/>
+      <c r="K4" s="51" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="29"/>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="52" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="126" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48">
+    <row r="5" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="A5" s="45"/>
+      <c r="B5" s="46">
         <v>9615</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="49">
+      <c r="C5" s="45"/>
+      <c r="D5" s="47">
         <v>44981</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51">
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="49">
         <v>1252000</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="50"/>
-      <c r="K5" s="53" t="s">
+      <c r="I5" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="48"/>
+      <c r="K5" s="51" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="29"/>
-      <c r="M5" s="54" t="s">
+      <c r="M5" s="52" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="55">
+    <row r="6" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="53">
         <v>90488</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="49">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="47">
         <v>44980</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="56">
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="54">
         <v>16290</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="53" t="s">
+      <c r="I6" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="55"/>
+      <c r="K6" s="51" t="s">
         <v>13</v>
       </c>
       <c r="L6" s="29"/>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="56" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
-      <c r="C7" s="59">
+      <c r="C7" s="57">
         <v>20156</v>
       </c>
       <c r="D7" s="24">
@@ -1590,16 +1598,16 @@
       <c r="E7" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="58" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="26">
         <v>40000</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="62" t="s">
+      <c r="I7" s="60" t="s">
         <v>21</v>
       </c>
       <c r="J7" s="21"/>
@@ -1611,7 +1619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>90382</v>
       </c>
@@ -1629,10 +1637,10 @@
       <c r="G8" s="20">
         <v>311700</v>
       </c>
-      <c r="H8" s="62" t="s">
+      <c r="H8" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="63" t="s">
+      <c r="I8" s="61" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="21"/>
@@ -1644,7 +1652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>90381</v>
       </c>
@@ -1662,10 +1670,10 @@
       <c r="G9" s="20">
         <v>27400</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="63" t="s">
+      <c r="I9" s="61" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="21"/>
@@ -1677,7 +1685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>90379</v>
       </c>
@@ -1689,16 +1697,16 @@
       <c r="E10" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="58" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="26">
         <v>121300</v>
       </c>
-      <c r="H10" s="64" t="s">
+      <c r="H10" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="63" t="s">
+      <c r="I10" s="61" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="21"/>
@@ -1710,7 +1718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="6">
@@ -1728,10 +1736,10 @@
       <c r="G11" s="20">
         <v>145200</v>
       </c>
-      <c r="H11" s="63" t="s">
+      <c r="H11" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="65" t="s">
+      <c r="I11" s="63" t="s">
         <v>16</v>
       </c>
       <c r="J11" s="21"/>
@@ -1743,7 +1751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="8">
         <v>9605</v>
@@ -1761,7 +1769,7 @@
       <c r="G12" s="12">
         <v>477800</v>
       </c>
-      <c r="H12" s="66" t="s">
+      <c r="H12" s="64" t="s">
         <v>51</v>
       </c>
       <c r="I12" s="13" t="s">
@@ -1772,11 +1780,11 @@
         <v>13</v>
       </c>
       <c r="L12" s="15"/>
-      <c r="M12" s="67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M12" s="65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>90377</v>
       </c>
@@ -1794,7 +1802,7 @@
       <c r="G13" s="12">
         <v>18000</v>
       </c>
-      <c r="H13" s="66" t="s">
+      <c r="H13" s="64" t="s">
         <v>52</v>
       </c>
       <c r="I13" s="13" t="s">
@@ -1805,11 +1813,11 @@
         <v>13</v>
       </c>
       <c r="L13" s="15"/>
-      <c r="M13" s="67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M13" s="65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>90374</v>
       </c>
@@ -1827,7 +1835,7 @@
       <c r="G14" s="12">
         <v>21850</v>
       </c>
-      <c r="H14" s="66" t="s">
+      <c r="H14" s="64" t="s">
         <v>53</v>
       </c>
       <c r="I14" s="13" t="s">
@@ -1840,11 +1848,11 @@
         <v>13</v>
       </c>
       <c r="L14" s="15"/>
-      <c r="M14" s="67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M14" s="65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>90385</v>
       </c>
@@ -1862,7 +1870,7 @@
       <c r="G15" s="12">
         <v>23550</v>
       </c>
-      <c r="H15" s="66" t="s">
+      <c r="H15" s="64" t="s">
         <v>55</v>
       </c>
       <c r="I15" s="13" t="s">
@@ -1873,11 +1881,11 @@
         <v>13</v>
       </c>
       <c r="L15" s="15"/>
-      <c r="M15" s="67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M15" s="65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>90387</v>
       </c>
@@ -1895,7 +1903,7 @@
       <c r="G16" s="12">
         <v>27750</v>
       </c>
-      <c r="H16" s="66" t="s">
+      <c r="H16" s="64" t="s">
         <v>56</v>
       </c>
       <c r="I16" s="13" t="s">
@@ -1908,11 +1916,11 @@
         <v>13</v>
       </c>
       <c r="L16" s="15"/>
-      <c r="M16" s="67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M16" s="65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>90384</v>
       </c>
@@ -1930,7 +1938,7 @@
       <c r="G17" s="12">
         <v>34000</v>
       </c>
-      <c r="H17" s="66" t="s">
+      <c r="H17" s="64" t="s">
         <v>57</v>
       </c>
       <c r="I17" s="13" t="s">
@@ -1941,11 +1949,11 @@
         <v>13</v>
       </c>
       <c r="L17" s="15"/>
-      <c r="M17" s="67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="M17" s="65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>90378</v>
       </c>
@@ -1963,7 +1971,7 @@
       <c r="G18" s="12">
         <v>35400</v>
       </c>
-      <c r="H18" s="66" t="s">
+      <c r="H18" s="64" t="s">
         <v>58</v>
       </c>
       <c r="I18" s="13" t="s">
@@ -1976,11 +1984,11 @@
         <v>13</v>
       </c>
       <c r="L18" s="15"/>
-      <c r="M18" s="67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M18" s="65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>90386</v>
       </c>
@@ -1998,7 +2006,7 @@
       <c r="G19" s="12">
         <v>53600</v>
       </c>
-      <c r="H19" s="66" t="s">
+      <c r="H19" s="64" t="s">
         <v>59</v>
       </c>
       <c r="I19" s="13" t="s">
@@ -2009,11 +2017,11 @@
         <v>13</v>
       </c>
       <c r="L19" s="15"/>
-      <c r="M19" s="67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M19" s="65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>90376</v>
       </c>
@@ -2031,7 +2039,7 @@
       <c r="G20" s="12">
         <v>79800</v>
       </c>
-      <c r="H20" s="66" t="s">
+      <c r="H20" s="64" t="s">
         <v>60</v>
       </c>
       <c r="I20" s="13" t="s">
@@ -2042,11 +2050,11 @@
         <v>13</v>
       </c>
       <c r="L20" s="15"/>
-      <c r="M20" s="67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M20" s="65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8">
@@ -2064,7 +2072,7 @@
       <c r="G21" s="12">
         <v>90450</v>
       </c>
-      <c r="H21" s="66" t="s">
+      <c r="H21" s="64" t="s">
         <v>24</v>
       </c>
       <c r="I21" s="13" t="s">
@@ -2075,11 +2083,11 @@
         <v>13</v>
       </c>
       <c r="L21" s="15"/>
-      <c r="M21" s="67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M21" s="65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8">
@@ -2097,7 +2105,7 @@
       <c r="G22" s="12">
         <v>94550</v>
       </c>
-      <c r="H22" s="66" t="s">
+      <c r="H22" s="64" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="13" t="s">
@@ -2108,11 +2116,11 @@
         <v>13</v>
       </c>
       <c r="L22" s="15"/>
-      <c r="M22" s="67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M22" s="65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>90380</v>
       </c>
@@ -2130,7 +2138,7 @@
       <c r="G23" s="12">
         <v>117300</v>
       </c>
-      <c r="H23" s="66" t="s">
+      <c r="H23" s="64" t="s">
         <v>22</v>
       </c>
       <c r="I23" s="13" t="s">
@@ -2141,11 +2149,11 @@
         <v>13</v>
       </c>
       <c r="L23" s="15"/>
-      <c r="M23" s="67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M23" s="65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8">
@@ -2163,7 +2171,7 @@
       <c r="G24" s="12">
         <v>200300</v>
       </c>
-      <c r="H24" s="66" t="s">
+      <c r="H24" s="64" t="s">
         <v>62</v>
       </c>
       <c r="I24" s="13" t="s">
@@ -2174,11 +2182,11 @@
         <v>13</v>
       </c>
       <c r="L24" s="15"/>
-      <c r="M24" s="67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M24" s="65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="8">
         <v>9603</v>
@@ -2196,7 +2204,7 @@
       <c r="G25" s="12">
         <v>440300</v>
       </c>
-      <c r="H25" s="66" t="s">
+      <c r="H25" s="64" t="s">
         <v>64</v>
       </c>
       <c r="I25" s="13" t="s">
@@ -2207,11 +2215,11 @@
         <v>13</v>
       </c>
       <c r="L25" s="15"/>
-      <c r="M25" s="67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="M25" s="65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>90375</v>
       </c>
@@ -2229,7 +2237,7 @@
       <c r="G26" s="12">
         <v>21600</v>
       </c>
-      <c r="H26" s="66" t="s">
+      <c r="H26" s="64" t="s">
         <v>65</v>
       </c>
       <c r="I26" s="13" t="s">
@@ -2240,11 +2248,11 @@
         <v>13</v>
       </c>
       <c r="L26" s="15"/>
-      <c r="M26" s="67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M26" s="65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>90373</v>
       </c>
@@ -2262,7 +2270,7 @@
       <c r="G27" s="12">
         <v>28300</v>
       </c>
-      <c r="H27" s="66"/>
+      <c r="H27" s="64"/>
       <c r="I27" s="13" t="s">
         <v>16</v>
       </c>
@@ -2273,11 +2281,11 @@
         <v>13</v>
       </c>
       <c r="L27" s="15"/>
-      <c r="M27" s="67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M27" s="65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="8">
@@ -2295,7 +2303,7 @@
       <c r="G28" s="12">
         <v>103710</v>
       </c>
-      <c r="H28" s="66" t="s">
+      <c r="H28" s="64" t="s">
         <v>66</v>
       </c>
       <c r="I28" s="13" t="s">
@@ -2306,11 +2314,11 @@
         <v>13</v>
       </c>
       <c r="L28" s="15"/>
-      <c r="M28" s="67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M28" s="65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8">
@@ -2328,7 +2336,7 @@
       <c r="G29" s="12">
         <v>98000</v>
       </c>
-      <c r="H29" s="66" t="s">
+      <c r="H29" s="64" t="s">
         <v>67</v>
       </c>
       <c r="I29" s="13" t="s">
@@ -2341,11 +2349,11 @@
         <v>13</v>
       </c>
       <c r="L29" s="15"/>
-      <c r="M29" s="67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="M29" s="65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>90370</v>
       </c>
@@ -2363,7 +2371,7 @@
       <c r="G30" s="12">
         <v>24100</v>
       </c>
-      <c r="H30" s="66" t="s">
+      <c r="H30" s="64" t="s">
         <v>68</v>
       </c>
       <c r="I30" s="13" t="s">
@@ -2376,11 +2384,11 @@
         <v>13</v>
       </c>
       <c r="L30" s="15"/>
-      <c r="M30" s="67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M30" s="65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="23">
         <v>90501</v>
       </c>
@@ -2392,7 +2400,7 @@
       <c r="E31" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="58" t="s">
         <v>20</v>
       </c>
       <c r="G31" s="26">
@@ -2409,11 +2417,11 @@
         <v>13</v>
       </c>
       <c r="L31" s="29"/>
-      <c r="M31" s="57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M31" s="55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="23">
         <v>90502</v>
       </c>
@@ -2425,7 +2433,7 @@
       <c r="E32" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="60" t="s">
+      <c r="F32" s="58" t="s">
         <v>20</v>
       </c>
       <c r="G32" s="26">
@@ -2442,11 +2450,11 @@
         <v>13</v>
       </c>
       <c r="L32" s="29"/>
-      <c r="M32" s="57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M32" s="55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="23">
         <v>90503</v>
       </c>
@@ -2458,7 +2466,7 @@
       <c r="E33" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="60" t="s">
+      <c r="F33" s="58" t="s">
         <v>20</v>
       </c>
       <c r="G33" s="26">
@@ -2475,11 +2483,11 @@
         <v>13</v>
       </c>
       <c r="L33" s="29"/>
-      <c r="M33" s="57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M33" s="55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="23">
         <v>90506</v>
       </c>
@@ -2491,7 +2499,7 @@
       <c r="E34" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="60" t="s">
+      <c r="F34" s="58" t="s">
         <v>20</v>
       </c>
       <c r="G34" s="26">
@@ -2508,11 +2516,11 @@
         <v>13</v>
       </c>
       <c r="L34" s="29"/>
-      <c r="M34" s="57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M34" s="55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="23">
         <v>90508</v>
       </c>
@@ -2524,7 +2532,7 @@
       <c r="E35" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="60" t="s">
+      <c r="F35" s="58" t="s">
         <v>20</v>
       </c>
       <c r="G35" s="26">
@@ -2541,11 +2549,11 @@
         <v>13</v>
       </c>
       <c r="L35" s="29"/>
-      <c r="M35" s="57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M35" s="55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="23">
         <v>90509</v>
       </c>
@@ -2557,7 +2565,7 @@
       <c r="E36" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="60" t="s">
+      <c r="F36" s="58" t="s">
         <v>20</v>
       </c>
       <c r="G36" s="26">
@@ -2574,11 +2582,11 @@
         <v>13</v>
       </c>
       <c r="L36" s="29"/>
-      <c r="M36" s="57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M36" s="55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="23">
         <v>90510</v>
       </c>
@@ -2590,7 +2598,7 @@
       <c r="E37" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="60" t="s">
+      <c r="F37" s="58" t="s">
         <v>18</v>
       </c>
       <c r="G37" s="26">
@@ -2607,11 +2615,11 @@
         <v>13</v>
       </c>
       <c r="L37" s="29"/>
-      <c r="M37" s="57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M37" s="55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="23">
         <v>90515</v>
       </c>
@@ -2623,7 +2631,7 @@
       <c r="E38" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="60" t="s">
+      <c r="F38" s="58" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="26">
@@ -2640,11 +2648,11 @@
         <v>13</v>
       </c>
       <c r="L38" s="29"/>
-      <c r="M38" s="57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M38" s="55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="23">
@@ -2656,7 +2664,7 @@
       <c r="E39" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="60" t="s">
+      <c r="F39" s="58" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="26">
@@ -2673,11 +2681,11 @@
         <v>13</v>
       </c>
       <c r="L39" s="29"/>
-      <c r="M39" s="57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="M39" s="55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
       <c r="B40" s="22"/>
       <c r="C40" s="23">
@@ -2689,7 +2697,7 @@
       <c r="E40" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="60" t="s">
+      <c r="F40" s="58" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="26">
@@ -2706,11 +2714,11 @@
         <v>13</v>
       </c>
       <c r="L40" s="29"/>
-      <c r="M40" s="57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M40" s="55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>90513</v>
       </c>
@@ -2728,7 +2736,7 @@
       <c r="G41" s="12">
         <v>100000</v>
       </c>
-      <c r="H41" s="66" t="s">
+      <c r="H41" s="64" t="s">
         <v>78</v>
       </c>
       <c r="I41" s="13" t="s">
@@ -2739,11 +2747,11 @@
         <v>13</v>
       </c>
       <c r="L41" s="15"/>
-      <c r="M41" s="67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M41" s="65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>90513</v>
       </c>
@@ -2761,7 +2769,7 @@
       <c r="G42" s="12">
         <v>147400</v>
       </c>
-      <c r="H42" s="66" t="s">
+      <c r="H42" s="64" t="s">
         <v>78</v>
       </c>
       <c r="I42" s="13" t="s">
@@ -2772,11 +2780,11 @@
         <v>13</v>
       </c>
       <c r="L42" s="15"/>
-      <c r="M42" s="67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="M42" s="65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="23">
         <v>90511</v>
       </c>
@@ -2788,13 +2796,13 @@
       <c r="E43" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="60" t="s">
+      <c r="F43" s="58" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="26">
         <v>23000</v>
       </c>
-      <c r="H43" s="68" t="s">
+      <c r="H43" s="66" t="s">
         <v>79</v>
       </c>
       <c r="I43" s="27" t="s">
@@ -2805,11 +2813,11 @@
         <v>13</v>
       </c>
       <c r="L43" s="29"/>
-      <c r="M43" s="57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M43" s="55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="23">
         <v>90512</v>
       </c>
@@ -2821,13 +2829,13 @@
       <c r="E44" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="60" t="s">
+      <c r="F44" s="58" t="s">
         <v>18</v>
       </c>
       <c r="G44" s="26">
         <v>79500</v>
       </c>
-      <c r="H44" s="68" t="s">
+      <c r="H44" s="66" t="s">
         <v>80</v>
       </c>
       <c r="I44" s="27" t="s">
@@ -2838,11 +2846,11 @@
         <v>13</v>
       </c>
       <c r="L44" s="29"/>
-      <c r="M44" s="57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="M44" s="55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="8">
@@ -2860,7 +2868,7 @@
       <c r="G45" s="12">
         <v>43900</v>
       </c>
-      <c r="H45" s="66" t="s">
+      <c r="H45" s="64" t="s">
         <v>81</v>
       </c>
       <c r="I45" s="13" t="s">
@@ -2871,11 +2879,11 @@
         <v>13</v>
       </c>
       <c r="L45" s="15"/>
-      <c r="M45" s="67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M45" s="65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
       <c r="C46" s="23">
@@ -2887,13 +2895,13 @@
       <c r="E46" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="60" t="s">
+      <c r="F46" s="58" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="26">
         <v>100000</v>
       </c>
-      <c r="H46" s="68" t="s">
+      <c r="H46" s="66" t="s">
         <v>61</v>
       </c>
       <c r="I46" s="27" t="s">
@@ -2904,7 +2912,7 @@
         <v>13</v>
       </c>
       <c r="L46" s="29"/>
-      <c r="M46" s="57" t="s">
+      <c r="M46" s="55" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2965,43 +2973,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999062B8-ADCC-4DF8-9874-25361781FF7D}">
   <dimension ref="A1:AC36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-    </row>
-    <row r="2" spans="1:29" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+    </row>
+    <row r="2" spans="1:29" ht="70" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>26</v>
       </c>
@@ -3050,7 +3058,7 @@
       <c r="P2" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" s="70" t="s">
+      <c r="Q2" s="67" t="s">
         <v>98</v>
       </c>
       <c r="R2" s="32" t="s">
@@ -3090,7 +3098,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="56" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
         <v>27</v>
       </c>
@@ -3107,7 +3115,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="70" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
         <v>28</v>
       </c>
@@ -3142,18 +3150,18 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="56" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="67" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="56" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
         <v>30</v>
       </c>
@@ -3164,21 +3172,21 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="70" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="67" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="71"/>
-    </row>
-    <row r="9" spans="1:29" ht="51" x14ac:dyDescent="0.25">
+      <c r="B8" s="68"/>
+    </row>
+    <row r="9" spans="1:29" ht="56" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
         <v>33</v>
       </c>
@@ -3186,7 +3194,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="56" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>34</v>
       </c>
@@ -3194,24 +3202,24 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-    </row>
-    <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+    </row>
+    <row r="13" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
         <v>36</v>
       </c>
@@ -3220,14 +3228,14 @@
         <v>3420870</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="40"/>
     </row>
-    <row r="16" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>38</v>
       </c>
@@ -3236,7 +3244,7 @@
         <v>3485750</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
         <v>39</v>
       </c>
@@ -3246,7 +3254,7 @@
         <v>-64880</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
